--- a/medicine/Psychotrope/Kahlúa/Kahlúa.xlsx
+++ b/medicine/Psychotrope/Kahlúa/Kahlúa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kahl%C3%BAa</t>
+          <t>Kahlúa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Kahlúa est une marque commerciale de liqueur à base de café, originaire du Mexique. C'est la liqueur aromatisée au café la plus vendue au monde[Information douteuse].
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kahl%C3%BAa</t>
+          <t>Kahlúa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liqueur de café serait apparue en Jamaïque au XVIIe siècle[1].
-Allied Domecq, créé en 1994 après le rapprochement de la société britannique Allied Lyons et de la société espagnole Pedro Domecq, produit du Kahlúa depuis 1936[2] jusqu'à son rachat en 2005 par Pernod Ricard, le premier distributeur mondial de vins et spiritueux (après le rachat en mars 2008 du suédois Vin &amp; Sprit).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liqueur de café serait apparue en Jamaïque au XVIIe siècle.
+Allied Domecq, créé en 1994 après le rapprochement de la société britannique Allied Lyons et de la société espagnole Pedro Domecq, produit du Kahlúa depuis 1936 jusqu'à son rachat en 2005 par Pernod Ricard, le premier distributeur mondial de vins et spiritueux (après le rachat en mars 2008 du suédois Vin &amp; Sprit).
 Le nom « Kahlúa » a été choisi par le producteur original, Domecq, en essayant de préserver l'identité du produit originaire de Veracruz. « Kahlúa » signifie initialement « Maison des Acolhuas » dans la langue mexicaine Nahuatl.
-En 2007, la liqueur a remporté une médaille d'argent à la compétition Internationale des Vins et Spiritueux[3].
+En 2007, la liqueur a remporté une médaille d'argent à la compétition Internationale des Vins et Spiritueux.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kahl%C3%BAa</t>
+          <t>Kahlúa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Kahlúa vendu en France est composé de :
 Eau
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kahl%C3%BAa</t>
+          <t>Kahlúa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Cocktails</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Kahlúa est, au même titre que les autres liqueurs de café, un ingrédient de nombreux cocktails, dont le Russe blanc, mis à l'honneur dans le film The Big Lebowski des frères Coen, ou le B-52, constitué de Kahlúa, Baileys et de Cointreau ; ce dernier est disposé en couches dans un verre à shot et généralement servi enflammé et bu à la paille.
 </t>
